--- a/experiment/output/results/OfficeHome/ERM/DG/2.xlsx
+++ b/experiment/output/results/OfficeHome/ERM/DG/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,22 +488,54 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250206_06-16-49_resnet50_sgd</t>
+          <t>250207_06-48-39_resnet50_adam (iter15000)</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72.917</v>
+        <v>75.563</v>
       </c>
       <c r="E2" t="n">
-        <v>73.367</v>
+        <v>73.846</v>
       </c>
       <c r="F2" t="n">
-        <v>73.057</v>
+        <v>72.63500000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ERM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>250206_06-16-49_resnet50_sgd</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>72.917</v>
+      </c>
+      <c r="E3" t="n">
+        <v>73.367</v>
+      </c>
+      <c r="F3" t="n">
+        <v>73.057</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
     </row>
